--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd7e0512809feb60/Skrivebord/VS CODE/Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4DA58AFA335C900D1F9AC5C33AD9F81C747B4934" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{900E0756-E7F3-4EF0-BC54-6A424055F75B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4770" yWindow="795" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +342,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -1,49 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd7e0512809feb60/Skrivebord/VS CODE/Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4DA58AFA335C900D1F9AC5C33AD9F81C747B4934" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{900E0756-E7F3-4EF0-BC54-6A424055F75B}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="795" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3852" yWindow="2328" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,13 +386,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.21875" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Day/hour</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Wh_1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Wh_2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Wh_3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Wh_4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Wh_5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Wh_6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ore_1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ore_2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ore_3</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ore_4</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ore_5</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ore_6</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>t_kWh_1</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>t_kWh_2</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>t_kWh_3</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>t_kWh_4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>t_kWh_5</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>t_kWh_6</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>t_NOK_1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>t_NOK_2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>t_NOK_3</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>t_NOK_4</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>t_NOK_5</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>t_NOK_6</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>13 15:45:32</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>44</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.028418</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.56836</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.250392</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13 15:58:23</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3852" yWindow="2328" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3852" yWindow="2328" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,7 +393,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -409,16 +409,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="14.21875" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -557,11 +554,10 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13 15:45:32</t>
+          <t>13 16:07:23</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -583,7 +579,7 @@
         <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>0.028418</v>
+        <v>0.026433</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -592,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.56836</v>
+        <v>0.52866</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.250392</v>
+        <v>1.163052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13 15:58:23</t>
+          <t>13 16:07:40</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -641,6 +637,436 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13 16:10:17</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13 16:29:57</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13 16:34:33</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13 16:39:29</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13 16:40:31</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13 16:46:41</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13 16:48:05</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13 16:52:49</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>44</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13 16:54:48</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 17:15:39</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.163052</v>
       </c>
     </row>

--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,522 @@
         <v>1.163052</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13 17:58:28</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>44</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13 18:00:05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14 21:03:16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>44</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14 21:07:13</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>44</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.024134</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.48268</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.061896</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14 21:08:53</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>44</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.024134</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.48268</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.061896</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14 21:09:17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.024134</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.48268</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.061896</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15 18:09:31</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>44</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.024134</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.48268</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.061896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15 18:46:38</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>44</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.023176</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.46352</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.019744</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15 18:46:59</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>44</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.023176</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.46352</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.019744</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15 19:42:47</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>44</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.023176</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.46352</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.019744</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16 18:23:42</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>44</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.023779</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.47558</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.046276</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16 18:24:47</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>44</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.023779</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.47558</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.046276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3852" yWindow="2328" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2021-5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2021-51" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -409,7 +410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +645,195 @@
         <v>1.163052</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Day/hour</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wh_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wh_2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wh_3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wh_4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wh_5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Wh_6</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ore_1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ore_2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ore_3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ore_4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ore_5</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ore_6</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>t_kWh_1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>t_kWh_2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>t_kWh_3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>t_kWh_4</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>t_kWh_5</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>t_kWh_6</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>t_NOK_1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>t_NOK_2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>t_NOK_3</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>t_NOK_4</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>t_NOK_5</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>t_NOK_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15 19:33:28</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.026433</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.52866</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.163052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/strømbruk.xlsx
+++ b/strømbruk.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,6 +1586,49 @@
         <v>1.046276</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16 18:46:07</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>44</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.023779</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.47558</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.046276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
